--- a/cee6400phyhydro/hw/hw3/cee6400hw1-1-5/rainelev.xlsx
+++ b/cee6400phyhydro/hw/hw3/cee6400hw1-1-5/rainelev.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labuser\Downloads\cee6400hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karunjoseph/usu/usu-coursework/cee6400phyhydro/hw/hw3/cee6400hw1-1-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rainelev" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm.Database">rainelev!$A$1:$AA$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
@@ -728,7 +736,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -742,6 +750,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Precipitation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs elevation relationship </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -856,7 +894,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.249248216626996"/>
+                  <c:y val="0.186463509685668"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -894,79 +937,79 @@
                 <c:formatCode>0.00000000000</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1584</c:v>
+                  <c:v>1584.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1387</c:v>
+                  <c:v>1387.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1498</c:v>
+                  <c:v>1498.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1328</c:v>
+                  <c:v>1328.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1435</c:v>
+                  <c:v>1435.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1286</c:v>
+                  <c:v>1286.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1518</c:v>
+                  <c:v>1518.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1184</c:v>
+                  <c:v>1184.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1323</c:v>
+                  <c:v>1323.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1485</c:v>
+                  <c:v>1485.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1414</c:v>
+                  <c:v>1414.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1796</c:v>
+                  <c:v>1796.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1465</c:v>
+                  <c:v>1465.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1805</c:v>
+                  <c:v>1805.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1664</c:v>
+                  <c:v>1664.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1654</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1809</c:v>
+                  <c:v>1809.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1869</c:v>
+                  <c:v>1869.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1654</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2166</c:v>
+                  <c:v>2166.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2071</c:v>
+                  <c:v>2071.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2059</c:v>
+                  <c:v>2059.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2098</c:v>
+                  <c:v>2098.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,10 +1081,10 @@
                   <c:v>711.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1122.3900000000001</c:v>
+                  <c:v>1122.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>805.93</c:v>
+                  <c:v>805.9299999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>992.53</c:v>
@@ -1056,7 +1099,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4BDB-4735-8A8C-FEA8559EFA95}"/>
             </c:ext>
@@ -1070,11 +1113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353348648"/>
-        <c:axId val="353348976"/>
+        <c:axId val="-2085445552"/>
+        <c:axId val="-2085448928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353348648"/>
+        <c:axId val="-2085445552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,6 +1137,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elevation (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1131,12 +1230,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353348976"/>
+        <c:crossAx val="-2085448928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353348976"/>
+        <c:axId val="-2085448928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,8 +1255,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precipitation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1193,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353348648"/>
+        <c:crossAx val="-2085445552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,8 +1962,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585786</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
@@ -2098,21 +2258,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.75" style="1" customWidth="1"/>
-    <col min="2" max="16" width="19.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="254.625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="27" width="19.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16" width="19.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="254.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="19.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2438,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2361,7 +2521,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2444,7 +2604,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2527,7 +2687,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2610,7 +2770,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2693,7 +2853,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2776,7 +2936,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2859,7 +3019,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2942,7 +3102,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -3025,7 +3185,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3108,7 +3268,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +3351,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3274,7 +3434,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3357,7 +3517,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3440,7 +3600,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -3523,7 +3683,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3606,7 +3766,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3849,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3772,7 +3932,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3855,7 +4015,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3938,7 +4098,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,7 +4181,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4104,7 +4264,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4187,7 +4347,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,16 +4439,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4296,7 +4456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1584</v>
       </c>
@@ -4304,7 +4464,7 @@
         <v>558.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1387</v>
       </c>
@@ -4312,7 +4472,7 @@
         <v>359.82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1498</v>
       </c>
@@ -4320,7 +4480,7 @@
         <v>546.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1328</v>
       </c>
@@ -4328,7 +4488,7 @@
         <v>407.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1435</v>
       </c>
@@ -4336,7 +4496,7 @@
         <v>504.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1286</v>
       </c>
@@ -4344,7 +4504,7 @@
         <v>223.71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1518</v>
       </c>
@@ -4352,7 +4512,7 @@
         <v>507.89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1184</v>
       </c>
@@ -4360,7 +4520,7 @@
         <v>236.61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1200</v>
       </c>
@@ -4368,7 +4528,7 @@
         <v>280.14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1323</v>
       </c>
@@ -4376,7 +4536,7 @@
         <v>268.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1485</v>
       </c>
@@ -4384,7 +4544,7 @@
         <v>468.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1414</v>
       </c>
@@ -4392,7 +4552,7 @@
         <v>298.36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1796</v>
       </c>
@@ -4400,7 +4560,7 @@
         <v>716.42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1465</v>
       </c>
@@ -4408,7 +4568,7 @@
         <v>470.87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1805</v>
       </c>
@@ -4416,7 +4576,7 @@
         <v>583.12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1664</v>
       </c>
@@ -4424,7 +4584,7 @@
         <v>470.78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1654</v>
       </c>
@@ -4432,7 +4592,7 @@
         <v>349.54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1809</v>
       </c>
@@ -4440,7 +4600,7 @@
         <v>900.78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1869</v>
       </c>
@@ -4448,7 +4608,7 @@
         <v>522.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1654</v>
       </c>
@@ -4456,7 +4616,7 @@
         <v>711.65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2166</v>
       </c>
@@ -4464,7 +4624,7 @@
         <v>1122.3900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2002</v>
       </c>
@@ -4472,7 +4632,7 @@
         <v>805.93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2071</v>
       </c>
@@ -4480,7 +4640,7 @@
         <v>992.53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2059</v>
       </c>
@@ -4488,7 +4648,7 @@
         <v>990.67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2098</v>
       </c>
@@ -4498,6 +4658,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>